--- a/PackageAcctoOpp.xlsx
+++ b/PackageAcctoOpp.xlsx
@@ -376,8 +376,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J40" totalsRowShown="0">
-  <x:autoFilter ref="A1:J40"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J79" totalsRowShown="0">
+  <x:autoFilter ref="A1:J79"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -682,7 +682,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J40"/>
+  <x:dimension ref="A1:J79"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1542,6 +1542,816 @@
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
     </x:row>
+    <x:row r="41" spans="1:10">
+      <x:c r="A41" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s"/>
+      <x:c r="F41" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="s"/>
+      <x:c r="J41" s="0" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:10">
+      <x:c r="A42" s="0" t="s"/>
+      <x:c r="B42" s="0" t="s"/>
+      <x:c r="C42" s="0" t="s"/>
+      <x:c r="D42" s="0" t="s"/>
+      <x:c r="E42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="s"/>
+      <x:c r="J42" s="0" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:10">
+      <x:c r="A43" s="0" t="s"/>
+      <x:c r="B43" s="0" t="s"/>
+      <x:c r="C43" s="0" t="s"/>
+      <x:c r="D43" s="0" t="s"/>
+      <x:c r="E43" s="0" t="s"/>
+      <x:c r="F43" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="s"/>
+      <x:c r="J43" s="0" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:10">
+      <x:c r="A44" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s"/>
+      <x:c r="F44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="s"/>
+      <x:c r="J44" s="0" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:10">
+      <x:c r="A45" s="0" t="s"/>
+      <x:c r="B45" s="0" t="s"/>
+      <x:c r="C45" s="0" t="s"/>
+      <x:c r="D45" s="0" t="s"/>
+      <x:c r="E45" s="0" t="s"/>
+      <x:c r="F45" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="s"/>
+      <x:c r="J45" s="0" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:10">
+      <x:c r="A46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s"/>
+      <x:c r="F46" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="s"/>
+      <x:c r="J46" s="0" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:10">
+      <x:c r="A47" s="0" t="s"/>
+      <x:c r="B47" s="0" t="s"/>
+      <x:c r="C47" s="0" t="s"/>
+      <x:c r="D47" s="0" t="s"/>
+      <x:c r="E47" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="s"/>
+      <x:c r="J47" s="0" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:10">
+      <x:c r="A48" s="0" t="s"/>
+      <x:c r="B48" s="0" t="s"/>
+      <x:c r="C48" s="0" t="s"/>
+      <x:c r="D48" s="0" t="s"/>
+      <x:c r="E48" s="0" t="s"/>
+      <x:c r="F48" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="s"/>
+      <x:c r="J48" s="0" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:10">
+      <x:c r="A49" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="s"/>
+      <x:c r="F49" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="s"/>
+      <x:c r="J49" s="0" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:10">
+      <x:c r="A50" s="0" t="s"/>
+      <x:c r="B50" s="0" t="s"/>
+      <x:c r="C50" s="0" t="s"/>
+      <x:c r="D50" s="0" t="s"/>
+      <x:c r="E50" s="0" t="s"/>
+      <x:c r="F50" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="s"/>
+      <x:c r="J50" s="0" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:10">
+      <x:c r="A51" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s"/>
+      <x:c r="F51" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s"/>
+      <x:c r="J51" s="0" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:10">
+      <x:c r="A52" s="0" t="s"/>
+      <x:c r="B52" s="0" t="s"/>
+      <x:c r="C52" s="0" t="s"/>
+      <x:c r="D52" s="0" t="s"/>
+      <x:c r="E52" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s"/>
+      <x:c r="J52" s="0" t="s"/>
+    </x:row>
+    <x:row r="53" spans="1:10">
+      <x:c r="A53" s="0" t="s"/>
+      <x:c r="B53" s="0" t="s"/>
+      <x:c r="C53" s="0" t="s"/>
+      <x:c r="D53" s="0" t="s"/>
+      <x:c r="E53" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G53" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I53" s="0" t="s"/>
+      <x:c r="J53" s="0" t="s"/>
+    </x:row>
+    <x:row r="54" spans="1:10">
+      <x:c r="A54" s="0" t="s"/>
+      <x:c r="B54" s="0" t="s"/>
+      <x:c r="C54" s="0" t="s"/>
+      <x:c r="D54" s="0" t="s"/>
+      <x:c r="E54" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G54" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I54" s="0" t="s"/>
+      <x:c r="J54" s="0" t="s"/>
+    </x:row>
+    <x:row r="55" spans="1:10">
+      <x:c r="A55" s="0" t="s"/>
+      <x:c r="B55" s="0" t="s"/>
+      <x:c r="C55" s="0" t="s"/>
+      <x:c r="D55" s="0" t="s"/>
+      <x:c r="E55" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="s"/>
+      <x:c r="J55" s="0" t="s"/>
+    </x:row>
+    <x:row r="56" spans="1:10">
+      <x:c r="A56" s="0" t="s"/>
+      <x:c r="B56" s="0" t="s"/>
+      <x:c r="C56" s="0" t="s"/>
+      <x:c r="D56" s="0" t="s"/>
+      <x:c r="E56" s="0" t="s"/>
+      <x:c r="F56" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s"/>
+      <x:c r="J56" s="0" t="s"/>
+    </x:row>
+    <x:row r="57" spans="1:10">
+      <x:c r="A57" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="s"/>
+      <x:c r="F57" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G57" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I57" s="0" t="s"/>
+      <x:c r="J57" s="0" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:10">
+      <x:c r="A58" s="0" t="s"/>
+      <x:c r="B58" s="0" t="s"/>
+      <x:c r="C58" s="0" t="s"/>
+      <x:c r="D58" s="0" t="s"/>
+      <x:c r="E58" s="0" t="s"/>
+      <x:c r="F58" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s"/>
+      <x:c r="J58" s="0" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:10">
+      <x:c r="A59" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="s"/>
+      <x:c r="F59" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G59" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H59" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I59" s="0" t="s"/>
+      <x:c r="J59" s="0" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:10">
+      <x:c r="A60" s="0" t="s"/>
+      <x:c r="B60" s="0" t="s"/>
+      <x:c r="C60" s="0" t="s"/>
+      <x:c r="D60" s="0" t="s"/>
+      <x:c r="E60" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s"/>
+      <x:c r="J60" s="0" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:10">
+      <x:c r="A61" s="0" t="s"/>
+      <x:c r="B61" s="0" t="s"/>
+      <x:c r="C61" s="0" t="s"/>
+      <x:c r="D61" s="0" t="s"/>
+      <x:c r="E61" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I61" s="0" t="s"/>
+      <x:c r="J61" s="0" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:10">
+      <x:c r="A62" s="0" t="s"/>
+      <x:c r="B62" s="0" t="s"/>
+      <x:c r="C62" s="0" t="s"/>
+      <x:c r="D62" s="0" t="s"/>
+      <x:c r="E62" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s"/>
+      <x:c r="J62" s="0" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:10">
+      <x:c r="A63" s="0" t="s"/>
+      <x:c r="B63" s="0" t="s"/>
+      <x:c r="C63" s="0" t="s"/>
+      <x:c r="D63" s="0" t="s"/>
+      <x:c r="E63" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="s"/>
+      <x:c r="J63" s="0" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:10">
+      <x:c r="A64" s="0" t="s"/>
+      <x:c r="B64" s="0" t="s"/>
+      <x:c r="C64" s="0" t="s"/>
+      <x:c r="D64" s="0" t="s"/>
+      <x:c r="E64" s="0" t="s"/>
+      <x:c r="F64" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s"/>
+      <x:c r="J64" s="0" t="s"/>
+    </x:row>
+    <x:row r="65" spans="1:10">
+      <x:c r="A65" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="s"/>
+      <x:c r="F65" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G65" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H65" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I65" s="0" t="s"/>
+      <x:c r="J65" s="0" t="s"/>
+    </x:row>
+    <x:row r="66" spans="1:10">
+      <x:c r="A66" s="0" t="s"/>
+      <x:c r="B66" s="0" t="s"/>
+      <x:c r="C66" s="0" t="s"/>
+      <x:c r="D66" s="0" t="s"/>
+      <x:c r="E66" s="0" t="s"/>
+      <x:c r="F66" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G66" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="H66" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I66" s="0" t="s"/>
+      <x:c r="J66" s="0" t="s"/>
+    </x:row>
+    <x:row r="67" spans="1:10">
+      <x:c r="A67" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="s"/>
+      <x:c r="F67" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="s"/>
+      <x:c r="J67" s="0" t="s"/>
+    </x:row>
+    <x:row r="68" spans="1:10">
+      <x:c r="A68" s="0" t="s"/>
+      <x:c r="B68" s="0" t="s"/>
+      <x:c r="C68" s="0" t="s"/>
+      <x:c r="D68" s="0" t="s"/>
+      <x:c r="E68" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G68" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H68" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I68" s="0" t="s"/>
+      <x:c r="J68" s="0" t="s"/>
+    </x:row>
+    <x:row r="69" spans="1:10">
+      <x:c r="A69" s="0" t="s"/>
+      <x:c r="B69" s="0" t="s"/>
+      <x:c r="C69" s="0" t="s"/>
+      <x:c r="D69" s="0" t="s"/>
+      <x:c r="E69" s="0" t="s"/>
+      <x:c r="F69" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G69" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H69" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I69" s="0" t="s"/>
+      <x:c r="J69" s="0" t="s"/>
+    </x:row>
+    <x:row r="70" spans="1:10">
+      <x:c r="A70" s="0" t="s"/>
+      <x:c r="B70" s="0" t="s"/>
+      <x:c r="C70" s="0" t="s"/>
+      <x:c r="D70" s="0" t="s"/>
+      <x:c r="E70" s="0" t="s"/>
+      <x:c r="F70" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s"/>
+      <x:c r="J70" s="0" t="s"/>
+    </x:row>
+    <x:row r="71" spans="1:10">
+      <x:c r="A71" s="0" t="s"/>
+      <x:c r="B71" s="0" t="s"/>
+      <x:c r="C71" s="0" t="s"/>
+      <x:c r="D71" s="0" t="s"/>
+      <x:c r="E71" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G71" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H71" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="s"/>
+      <x:c r="J71" s="0" t="s"/>
+    </x:row>
+    <x:row r="72" spans="1:10">
+      <x:c r="A72" s="0" t="s"/>
+      <x:c r="B72" s="0" t="s"/>
+      <x:c r="C72" s="0" t="s"/>
+      <x:c r="D72" s="0" t="s"/>
+      <x:c r="E72" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G72" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H72" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I72" s="0" t="s"/>
+      <x:c r="J72" s="0" t="s"/>
+    </x:row>
+    <x:row r="73" spans="1:10">
+      <x:c r="A73" s="0" t="s"/>
+      <x:c r="B73" s="0" t="s"/>
+      <x:c r="C73" s="0" t="s"/>
+      <x:c r="D73" s="0" t="s"/>
+      <x:c r="E73" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="s"/>
+      <x:c r="J73" s="0" t="s"/>
+    </x:row>
+    <x:row r="74" spans="1:10">
+      <x:c r="A74" s="0" t="s"/>
+      <x:c r="B74" s="0" t="s"/>
+      <x:c r="C74" s="0" t="s"/>
+      <x:c r="D74" s="0" t="s"/>
+      <x:c r="E74" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="s"/>
+      <x:c r="J74" s="0" t="s"/>
+    </x:row>
+    <x:row r="75" spans="1:10">
+      <x:c r="A75" s="0" t="s"/>
+      <x:c r="B75" s="0" t="s"/>
+      <x:c r="C75" s="0" t="s"/>
+      <x:c r="D75" s="0" t="s"/>
+      <x:c r="E75" s="0" t="s"/>
+      <x:c r="F75" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="s"/>
+      <x:c r="J75" s="0" t="s"/>
+    </x:row>
+    <x:row r="76" spans="1:10">
+      <x:c r="A76" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="s"/>
+      <x:c r="F76" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="s"/>
+      <x:c r="J76" s="0" t="s"/>
+    </x:row>
+    <x:row r="77" spans="1:10">
+      <x:c r="A77" s="0" t="s"/>
+      <x:c r="B77" s="0" t="s"/>
+      <x:c r="C77" s="0" t="s"/>
+      <x:c r="D77" s="0" t="s"/>
+      <x:c r="E77" s="0" t="s"/>
+      <x:c r="F77" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="s"/>
+      <x:c r="J77" s="0" t="s"/>
+    </x:row>
+    <x:row r="78" spans="1:10">
+      <x:c r="A78" s="0" t="s"/>
+      <x:c r="B78" s="0" t="s"/>
+      <x:c r="C78" s="0" t="s"/>
+      <x:c r="D78" s="0" t="s"/>
+      <x:c r="E78" s="0" t="s"/>
+      <x:c r="F78" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="s"/>
+      <x:c r="I78" s="0" t="s"/>
+      <x:c r="J78" s="0" t="s"/>
+    </x:row>
+    <x:row r="79" spans="1:10">
+      <x:c r="A79" s="0" t="s"/>
+      <x:c r="B79" s="0" t="s"/>
+      <x:c r="C79" s="0" t="s"/>
+      <x:c r="D79" s="0" t="s"/>
+      <x:c r="E79" s="0" t="s"/>
+      <x:c r="F79" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="s"/>
+      <x:c r="J79" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
